--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -967,7 +967,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A7" sqref="A7:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -31,9 +31,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,22 +167,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +197,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -209,175 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,16 +508,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,112 +529,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,7 +967,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I32"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1008,7 +1008,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>1.578</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>300</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>1.9821</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>400</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2.321451</v>
       </c>
     </row>
   </sheetData>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -22,7 +22,7 @@
     <t>初始单价</t>
   </si>
   <si>
-    <t>生产系数</t>
+    <t>生产系数%</t>
   </si>
 </sst>
 </file>
@@ -31,9 +31,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,6 +167,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -176,13 +183,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +197,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -215,12 +227,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,31 +281,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,19 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,6 +359,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -323,61 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,10 +496,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,16 +508,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,112 +529,112 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,7 +967,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1008,7 +1008,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="1">
-        <v>1.25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1019,7 +1019,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="1">
-        <v>1.578</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1030,7 +1030,7 @@
         <v>300</v>
       </c>
       <c r="C5" s="1">
-        <v>1.9821</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1041,7 +1041,7 @@
         <v>400</v>
       </c>
       <c r="C6" s="1">
-        <v>2.321451</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -197,187 +198,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,145 +497,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,7 +968,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1048,4 +1049,92 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>300</v>
+      </c>
+      <c r="C5" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>400</v>
+      </c>
+      <c r="C6" s="1">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -31,10 +31,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,15 +46,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,13 +60,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -84,38 +69,59 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,61 +135,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,187 +198,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,66 +392,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -481,6 +425,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -489,6 +448,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -497,10 +497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,133 +509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,7 +968,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1054,83 +1054,56 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
-        <v>125</v>
-      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
-      <c r="C4" s="1">
-        <v>126</v>
-      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>300</v>
-      </c>
-      <c r="C5" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>400</v>
-      </c>
-      <c r="C6" s="1">
-        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10770"/>
+    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
     <t>土地索引</t>
   </si>
@@ -25,16 +25,22 @@
   <si>
     <t>生产系数%</t>
   </si>
+  <si>
+    <t>开启等级</t>
+  </si>
+  <si>
+    <t>宠物栏索引</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,7 +52,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,9 +74,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,114 +151,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,181 +210,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,10 +398,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -425,21 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -448,47 +495,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -497,10 +503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -509,133 +515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -965,13 +971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="49.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
@@ -979,7 +985,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,8 +995,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1000,8 +1009,11 @@
       <c r="C2" s="1">
         <v>100</v>
       </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1011,8 +1023,11 @@
       <c r="C3" s="1">
         <v>125</v>
       </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1022,8 +1037,11 @@
       <c r="C4" s="1">
         <v>126</v>
       </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1033,8 +1051,11 @@
       <c r="C5" s="1">
         <v>127</v>
       </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1043,6 +1064,9 @@
       </c>
       <c r="C6" s="1">
         <v>128</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1054,56 +1078,71 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>300</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
+    <workbookView windowWidth="21015" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,9 +645,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -973,8 +976,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1078,72 +1081,87 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>4</v>
       </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>9</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215"/>
+    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
   <si>
-    <t>土地索引</t>
+    <t>土地id</t>
   </si>
   <si>
     <t>初始单价</t>
@@ -29,7 +29,7 @@
     <t>开启等级</t>
   </si>
   <si>
-    <t>宠物栏索引</t>
+    <t>宠物id</t>
   </si>
 </sst>
 </file>
@@ -234,157 +234,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,154 +503,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,8 +973,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1004,7 +1001,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1018,7 +1015,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
@@ -1032,7 +1029,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
@@ -1046,7 +1043,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>300</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>400</v>
@@ -1083,8 +1080,8 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1100,68 +1097,68 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>200</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>300</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -29,7 +29,7 @@
     <t>开启等级</t>
   </si>
   <si>
-    <t>宠物id</t>
+    <t>宠物栏id</t>
   </si>
 </sst>
 </file>
@@ -234,6 +234,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,12 +288,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,6 +342,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,30 +385,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,10 +503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -515,133 +515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -29,7 +29,7 @@
     <t>开启等级</t>
   </si>
   <si>
-    <t>宠物栏id</t>
+    <t>宠物栏类型(海陆空神)</t>
   </si>
 </sst>
 </file>
@@ -37,10 +37,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,6 +52,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -60,7 +83,81 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -74,46 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,75 +181,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,187 +204,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,76 +398,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,8 +425,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,10 +503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -515,133 +515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,12 +1081,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>100</v>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>土地id</t>
   </si>
@@ -31,6 +31,9 @@
   <si>
     <t>宠物栏类型(海陆空神)</t>
   </si>
+  <si>
+    <t>单价</t>
+  </si>
 </sst>
 </file>
 
@@ -39,8 +42,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,7 +55,81 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,13 +144,46 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -81,115 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,187 +207,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,8 +404,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,50 +440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -477,6 +451,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +487,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -503,10 +506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -515,133 +518,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1084,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1095,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215" activeTab="1"/>
+    <workbookView windowWidth="21015" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <t>土地id</t>
   </si>
   <si>
-    <t>初始单价</t>
+    <t>购买价格</t>
   </si>
   <si>
     <t>生产系数%</t>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,6 +61,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -69,6 +92,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -83,22 +122,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,87 +154,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +207,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -225,108 +255,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -346,48 +388,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,78 +398,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,6 +418,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -498,6 +465,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -506,10 +506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -518,133 +518,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,8 +976,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1083,7 +1083,7 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="10215"/>
+    <workbookView windowWidth="26085" windowHeight="10215" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>土地id</t>
   </si>
@@ -34,6 +34,9 @@
   <si>
     <t>单价</t>
   </si>
+  <si>
+    <t>土地Id</t>
+  </si>
 </sst>
 </file>
 
@@ -41,9 +44,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -976,8 +979,8 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1081,19 +1084,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1103,11 +1106,12 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1117,11 +1121,12 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1131,11 +1136,12 @@
       <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1145,11 +1151,12 @@
       <c r="C4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1159,9 +1166,10 @@
       <c r="C5" s="1">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>9</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="10215" activeTab="1"/>
+    <workbookView windowWidth="26085" windowHeight="8760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>土地id</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>开启等级</t>
+  </si>
+  <si>
+    <t>上一个土地id</t>
   </si>
   <si>
     <t>宠物栏类型(海陆空神)</t>
@@ -44,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -977,21 +980,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="49.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="16.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1004,8 +1009,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1018,8 +1026,11 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1032,8 +1043,11 @@
       <c r="D3" s="1">
         <v>3</v>
       </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1046,8 +1060,11 @@
       <c r="D4" s="1">
         <v>5</v>
       </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1060,8 +1077,11 @@
       <c r="D5" s="1">
         <v>7</v>
       </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1073,6 +1093,9 @@
       </c>
       <c r="D6" s="1">
         <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1087,29 +1110,32 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="36.875" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
@@ -1124,7 +1150,9 @@
       <c r="D2" s="1">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
@@ -1139,7 +1167,9 @@
       <c r="D3" s="1">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
@@ -1154,7 +1184,9 @@
       <c r="D4" s="1">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
@@ -1169,7 +1201,9 @@
       <c r="D5" s="1">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/conf/soil_data.xlsx
+++ b/conf/soil_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26085" windowHeight="8760" activeTab="1"/>
+    <workbookView windowWidth="26085" windowHeight="8715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C3" s="1">
         <v>125</v>
@@ -1052,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>200</v>
+        <v>40000</v>
       </c>
       <c r="C4" s="1">
         <v>126</v>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>300</v>
+        <v>80000</v>
       </c>
       <c r="C5" s="1">
         <v>127</v>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>400</v>
+        <v>100000</v>
       </c>
       <c r="C6" s="1">
         <v>128</v>
@@ -1110,7 +1110,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>200</v>
+        <v>100000</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>300</v>
+        <v>400000</v>
       </c>
       <c r="C5" s="1">
         <v>9</v>
